--- a/lbq_draft.xlsx
+++ b/lbq_draft.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csqsiew/Desktop/lbq/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA939CC7-7BF3-794F-AB22-DC9018A7AB71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="25640" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="25640" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -225,9 +231,6 @@
     <t>aoa4</t>
   </si>
   <si>
-    <t>Enter the total number of years you have spent using each language.</t>
-  </si>
-  <si>
     <t>y1</t>
   </si>
   <si>
@@ -291,9 +294,6 @@
     <t>accent</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
     <t>Rate the strength of your foreign accent in English. If you are a native speaker of English, choose N/A.</t>
   </si>
   <si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>Very Poor,Poor,Limited,Functional,Good,Very Good,Native-like</t>
-  </si>
-  <si>
-    <t>1 - Very Weak,2,3,4,5 - Very Strong,N/A</t>
   </si>
   <si>
     <t>Language2_3.txt</t>
@@ -641,17 +638,38 @@
     </r>
   </si>
   <si>
-    <t>Enter the age (in years) at which you started using each language.</t>
-  </si>
-  <si>
     <t>Education Level (current)</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>1 - Very Weak,2,3,4,5,6,7,8,9 - Very Strong,N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the age (in years) at which you started using each language. Please enter '1' for your native language(s). </t>
+  </si>
+  <si>
+    <t>Please estimate the number of years you have spent using each language.</t>
+  </si>
+  <si>
+    <t>INSERT LINK</t>
+  </si>
+  <si>
+    <t>Pregoodbye</t>
+  </si>
+  <si>
+    <t>You have completed the first part of this study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please click CONTINUE for instructions to the next part of the study. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1430,6 +1448,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1754,14 +1780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -2174,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2224,7 +2250,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2274,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2419,12 +2445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="18">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2474,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2577,7 +2603,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2607,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
@@ -2633,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -2657,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
@@ -2707,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>19</v>
@@ -2729,7 +2755,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2759,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>19</v>
@@ -2790,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>51</v>
@@ -2811,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>19</v>
@@ -2842,10 +2868,10 @@
         <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>16</v>
@@ -2863,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>19</v>
@@ -2882,7 +2908,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
@@ -2894,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>51</v>
@@ -2915,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>19</v>
@@ -2934,10 +2960,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2946,10 +2972,10 @@
         <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>16</v>
@@ -2967,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>19</v>
@@ -2989,7 +3015,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2998,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>51</v>
@@ -3019,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>19</v>
@@ -3038,7 +3064,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -3071,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -3086,12 +3112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="18">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3141,13 +3167,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -3300,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -3324,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
         <v>16</v>
@@ -3350,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -3374,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
         <v>16</v>
@@ -3400,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -3424,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s">
         <v>16</v>
@@ -3450,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -3474,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
         <v>16</v>
@@ -3544,7 +3570,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3591,7 +3617,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
@@ -3600,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -3624,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
         <v>16</v>
@@ -3641,7 +3667,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
@@ -3650,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -3674,10 +3700,10 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N44" t="s">
         <v>16</v>
@@ -3691,7 +3717,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -3700,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -3724,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N45" t="s">
         <v>16</v>
@@ -3741,7 +3767,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -3750,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -3774,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N46" t="s">
         <v>16</v>
@@ -3843,7 +3869,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
@@ -3876,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
         <v>16</v>
@@ -3893,7 +3919,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -3926,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N49" t="s">
         <v>16</v>
@@ -3943,10 +3969,10 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>75</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3993,10 +4019,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4026,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s">
         <v>19</v>
@@ -4096,7 +4122,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4143,10 +4169,10 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4155,10 +4181,10 @@
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
@@ -4176,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N54" t="s">
         <v>16</v>
@@ -4193,10 +4219,10 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4243,10 +4269,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4293,10 +4319,10 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4343,10 +4369,10 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4393,10 +4419,10 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4443,10 +4469,10 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4493,10 +4519,10 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4543,10 +4569,10 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4646,10 +4672,10 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -4693,22 +4719,22 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
         <v>54</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -4726,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M65" t="s">
         <v>19</v>
@@ -4743,22 +4769,22 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
         <v>55</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -4776,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M66" t="s">
         <v>19</v>
@@ -4793,22 +4819,22 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>56</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
         <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -4826,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M67" t="s">
         <v>19</v>
@@ -4843,22 +4869,22 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
         <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -4876,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M68" t="s">
         <v>19</v>
@@ -4899,7 +4925,7 @@
         <v>60</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
         <v>61</v>
@@ -4946,10 +4972,10 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4993,22 +5019,22 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
         <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -5026,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M71" t="s">
         <v>19</v>
@@ -5043,22 +5069,22 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -5076,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s">
         <v>19</v>
@@ -5093,22 +5119,22 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -5126,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M73" t="s">
         <v>19</v>
@@ -5143,22 +5169,22 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>57</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -5176,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M74" t="s">
         <v>19</v>
@@ -5199,7 +5225,7 @@
         <v>60</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
         <v>61</v>
@@ -5243,22 +5269,22 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
         <v>88</v>
       </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -5276,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M76" t="s">
         <v>19</v>
@@ -5299,7 +5325,7 @@
         <v>60</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
         <v>61</v>
@@ -5346,10 +5372,10 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -5393,16 +5419,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -5426,10 +5452,10 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N79" t="s">
         <v>16</v>
@@ -5443,16 +5469,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
@@ -5476,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
         <v>16</v>
@@ -5493,16 +5519,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>56</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -5526,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N81" t="s">
         <v>16</v>
@@ -5543,16 +5569,16 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
         <v>57</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
@@ -5576,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N82" t="s">
         <v>16</v>
@@ -5596,10 +5622,10 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -5643,13 +5669,13 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
@@ -5676,10 +5702,10 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N84" t="s">
         <v>16</v>
@@ -5693,13 +5719,13 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
@@ -5726,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N85" t="s">
         <v>16</v>
@@ -5743,13 +5769,13 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
@@ -5776,10 +5802,10 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M86" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N86" t="s">
         <v>16</v>
@@ -5793,13 +5819,13 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -5826,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N87" t="s">
         <v>16</v>
@@ -5846,13 +5872,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
@@ -5890,6 +5916,170 @@
       <c r="P88">
         <v>0</v>
       </c>
+    </row>
+    <row r="96" spans="1:16" ht="17">
+      <c r="B96" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100" t="s">
+        <v>12</v>
+      </c>
+      <c r="N100" t="s">
+        <v>13</v>
+      </c>
+      <c r="O100" t="s">
+        <v>14</v>
+      </c>
+      <c r="P100" t="s">
+        <v>15</v>
+      </c>
+      <c r="R100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="17">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="106" spans="1:18" ht="18">
+      <c r="B106" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5903,14 +6093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E29" sqref="A1:P49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -5962,7 +6152,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6026,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -6050,10 +6240,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>16</v>
@@ -6076,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -6100,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -6126,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -6150,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -6220,7 +6410,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6267,7 +6457,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -6276,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -6300,10 +6490,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>16</v>
@@ -6317,7 +6507,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6326,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -6350,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -6367,7 +6557,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -6376,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -6400,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
         <v>16</v>
@@ -6467,7 +6657,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -6500,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -6517,7 +6707,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -6550,10 +6740,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
         <v>16</v>
@@ -6567,10 +6757,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6617,10 +6807,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6650,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -6720,7 +6910,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6767,10 +6957,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6779,10 +6969,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -6800,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
         <v>16</v>
@@ -6817,10 +7007,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6867,10 +7057,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6917,10 +7107,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6967,10 +7157,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7017,10 +7207,10 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7067,10 +7257,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7117,10 +7307,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -7167,10 +7357,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -7270,10 +7460,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -7317,22 +7507,22 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -7350,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -7367,22 +7557,22 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -7400,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -7417,22 +7607,22 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -7450,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -7473,7 +7663,7 @@
         <v>60</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
@@ -7520,10 +7710,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -7567,22 +7757,22 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -7600,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
@@ -7617,22 +7807,22 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -7650,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
@@ -7667,22 +7857,22 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -7700,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M36" t="s">
         <v>19</v>
@@ -7723,7 +7913,7 @@
         <v>60</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>61</v>
@@ -7767,22 +7957,22 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
@@ -7800,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
@@ -7823,7 +8013,7 @@
         <v>60</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>61</v>
@@ -7870,10 +8060,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -7917,16 +8107,16 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -7950,10 +8140,10 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N41" t="s">
         <v>16</v>
@@ -7967,16 +8157,16 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -8000,10 +8190,10 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N42" t="s">
         <v>16</v>
@@ -8017,16 +8207,16 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -8050,10 +8240,10 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
         <v>16</v>
@@ -8070,10 +8260,10 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -8117,13 +8307,13 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -8150,10 +8340,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N45" t="s">
         <v>16</v>
@@ -8167,13 +8357,13 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
@@ -8200,10 +8390,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N46" t="s">
         <v>16</v>
@@ -8217,13 +8407,13 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -8250,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N47" t="s">
         <v>16</v>
@@ -8267,13 +8457,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -8300,10 +8490,10 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
         <v>16</v>
@@ -8320,13 +8510,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -8377,14 +8567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F27" sqref="A1:P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -8436,7 +8626,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -8500,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -8524,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>16</v>
@@ -8550,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -8574,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -8644,7 +8834,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8691,7 +8881,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -8700,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -8724,10 +8914,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
@@ -8741,7 +8931,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8750,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -8774,10 +8964,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>16</v>
@@ -8793,7 +8983,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1">
@@ -8841,7 +9031,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -8874,10 +9064,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
         <v>16</v>
@@ -8891,7 +9081,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -8924,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
         <v>16</v>
@@ -8941,10 +9131,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8991,10 +9181,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9024,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
@@ -9094,7 +9284,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9141,10 +9331,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9153,10 +9343,10 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -9174,10 +9364,10 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s">
         <v>16</v>
@@ -9191,10 +9381,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9241,10 +9431,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9291,10 +9481,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9341,10 +9531,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9391,10 +9581,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9441,10 +9631,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9491,10 +9681,10 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9541,10 +9731,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9644,10 +9834,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -9691,22 +9881,22 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -9724,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
@@ -9741,22 +9931,22 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -9774,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
@@ -9797,7 +9987,7 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>61</v>
@@ -9844,10 +10034,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -9891,22 +10081,22 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -9924,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -9941,22 +10131,22 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
@@ -9974,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
@@ -9997,7 +10187,7 @@
         <v>60</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>61</v>
@@ -10041,22 +10231,22 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -10074,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
@@ -10097,7 +10287,7 @@
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>61</v>
@@ -10144,10 +10334,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -10191,16 +10381,16 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -10224,10 +10414,10 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
         <v>16</v>
@@ -10241,16 +10431,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -10274,10 +10464,10 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
         <v>16</v>
@@ -10294,10 +10484,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -10341,13 +10531,13 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -10374,10 +10564,10 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
         <v>16</v>
@@ -10391,13 +10581,13 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -10424,10 +10614,10 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N41" t="s">
         <v>16</v>
@@ -10441,13 +10631,13 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -10474,10 +10664,10 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N42" t="s">
         <v>16</v>
@@ -10491,13 +10681,13 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -10524,10 +10714,10 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
         <v>16</v>
@@ -10544,13 +10734,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -10601,14 +10791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P5" sqref="A1:P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -10660,7 +10850,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -10724,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -10748,10 +10938,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>16</v>
@@ -10818,7 +11008,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10865,7 +11055,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -10874,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -10898,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -10965,7 +11155,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10998,10 +11188,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>16</v>
@@ -11015,7 +11205,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -11048,10 +11238,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -11065,10 +11255,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11115,10 +11305,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -11148,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -11218,7 +11408,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -11265,10 +11455,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -11277,10 +11467,10 @@
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -11298,10 +11488,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
         <v>16</v>
@@ -11315,10 +11505,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11365,10 +11555,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11415,10 +11605,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11465,10 +11655,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11515,10 +11705,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11565,10 +11755,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -11615,10 +11805,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11665,10 +11855,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -11768,10 +11958,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -11815,22 +12005,22 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -11848,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
@@ -11871,7 +12061,7 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
@@ -11918,10 +12108,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -11965,22 +12155,22 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -11998,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
@@ -12021,7 +12211,7 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>61</v>
@@ -12065,22 +12255,22 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -12098,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -12121,7 +12311,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
@@ -12168,10 +12358,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -12215,16 +12405,16 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -12248,10 +12438,10 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N33" t="s">
         <v>16</v>
@@ -12268,10 +12458,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -12315,13 +12505,13 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -12348,10 +12538,10 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s">
         <v>16</v>
@@ -12365,13 +12555,13 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -12398,10 +12588,10 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s">
         <v>16</v>
@@ -12415,13 +12605,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -12448,10 +12638,10 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
         <v>16</v>
@@ -12465,13 +12655,13 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -12498,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
         <v>16</v>
@@ -12518,13 +12708,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
